--- a/TestData.OpenXml/Data In/POModelsTemplate.xlsx
+++ b/TestData.OpenXml/Data In/POModelsTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="2" r:id="rId1"/>
@@ -23,12 +23,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr70164</t>
-  </si>
-  <si>
-    <t>EjerYjY</t>
-  </si>
-  <si>
     <t>invalid</t>
   </si>
   <si>
@@ -72,16 +66,22 @@
   </si>
   <si>
     <t>xavier.casafont@erni-espana.es</t>
+  </si>
+  <si>
+    <t>mngr78422</t>
+  </si>
+  <si>
+    <t>rydAren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m\-yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,11 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +225,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +277,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,16 +470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,12 +487,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -457,12 +501,12 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -478,69 +522,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>27021990</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>123456</v>
@@ -549,13 +593,13 @@
         <v>655667788</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4">
         <v>12344321</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>

--- a/TestData.OpenXml/Data In/POModelsTemplate.xlsx
+++ b/TestData.OpenXml/Data In/POModelsTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="2" r:id="rId1"/>
@@ -65,13 +65,13 @@
     <t>Barcelona</t>
   </si>
   <si>
-    <t>xavier.casafont@erni-espana.es</t>
-  </si>
-  <si>
     <t>mngr78422</t>
   </si>
   <si>
     <t>rydAren</t>
+  </si>
+  <si>
+    <t>xaviercasafont@hotmail.es</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:N19"/>
     </sheetView>
   </sheetViews>
@@ -489,10 +489,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -525,12 +525,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -571,8 +573,8 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>27021990</v>
+      <c r="B2" s="1">
+        <v>32931</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -586,14 +588,14 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>123456</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="4">
+        <v>888888</v>
+      </c>
+      <c r="H2" s="4">
         <v>655667788</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4">
         <v>12344321</v>
@@ -609,5 +611,6 @@
     <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestData.OpenXml/Data In/POModelsTemplate.xlsx
+++ b/TestData.OpenXml/Data In/POModelsTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>UserId</t>
   </si>
@@ -53,25 +53,31 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>El triangle</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>mngr78422</t>
+  </si>
+  <si>
+    <t>rydAren</t>
+  </si>
+  <si>
     <t>Xavier</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>El triangle</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>mngr78422</t>
-  </si>
-  <si>
-    <t>rydAren</t>
-  </si>
-  <si>
-    <t>xaviercasafont@hotmail.es</t>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>leonmiura4@hotmail.es</t>
+  </si>
+  <si>
+    <t>xaviercasafont4@hotmail.es</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -571,22 +577,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>32931</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4">
         <v>888888</v>
@@ -595,22 +601,51 @@
         <v>655667788</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4">
         <v>12344321</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30659</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>666666666</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12355321</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TestData.OpenXml/Data In/POModelsTemplate.xlsx
+++ b/TestData.OpenXml/Data In/POModelsTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>UserId</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>xaviercasafont4@hotmail.es</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>carlossantin4@hotmail.es</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,13 +645,46 @@
         <v>12355321</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>666666666</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12355321</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>